--- a/clean_model.xlsx
+++ b/clean_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717437F-C460-4DC9-9A98-604E359C5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12954A3-63BF-4389-A473-A849B61C6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3690" windowWidth="51840" windowHeight="21120" tabRatio="767" activeTab="1" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="39105" yWindow="-1545" windowWidth="31155" windowHeight="17820" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -142,27 +142,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>Expenses (excl. finance costs)</t>
-  </si>
-  <si>
-    <t>Accounting of equity investments</t>
-  </si>
-  <si>
-    <t>Financial expenses</t>
-  </si>
-  <si>
-    <t>Financial income</t>
-  </si>
-  <si>
-    <t>Net financial result</t>
-  </si>
-  <si>
-    <t>Operating profit (EBIT)</t>
-  </si>
-  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -205,28 +184,7 @@
     <t>Jun 24</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Receivables</t>
-  </si>
-  <si>
-    <t>Fixed assets</t>
-  </si>
-  <si>
-    <t>Current assets</t>
-  </si>
-  <si>
     <t>Total assets</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
-    <t>CFFO</t>
-  </si>
-  <si>
-    <t>CapEX</t>
   </si>
   <si>
     <t>FCF</t>
@@ -239,9 +197,6 @@
   </si>
   <si>
     <t>Net income growth</t>
-  </si>
-  <si>
-    <t>Financing CF</t>
   </si>
   <si>
     <t>Currency</t>
@@ -272,9 +227,6 @@
   </si>
   <si>
     <t>FY16</t>
-  </si>
-  <si>
-    <t>After tax result discontinued business</t>
   </si>
   <si>
     <t>FY15</t>
@@ -344,6 +296,42 @@
   </si>
   <si>
     <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>Interest expenses</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Net interest income</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA-margin</t>
+  </si>
+  <si>
+    <t>Shareholder's equity</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>InvCF</t>
+  </si>
+  <si>
+    <t>OpCF</t>
+  </si>
+  <si>
+    <t>FinCF</t>
   </si>
 </sst>
 </file>
@@ -579,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -656,6 +644,9 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1140,19 +1131,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>2025</v>
@@ -1174,12 +1165,12 @@
         <v>2029</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -1193,12 +1184,12 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E22" s="35">
         <v>0.04</v>
@@ -1206,7 +1197,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E23" s="35">
         <v>0.04</v>
@@ -1214,7 +1205,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E24" s="7">
         <v>0.78</v>
@@ -1222,7 +1213,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E25" s="35">
         <v>0</v>
@@ -1255,10 +1246,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O752"/>
+  <dimension ref="A1:O748"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1257,7 @@
     <col min="1" max="3" width="9.140625" style="4" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="2.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1310,56 +1302,54 @@
         <v>0</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1372,9 +1362,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -1387,83 +1375,79 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" ref="F15:O15" si="0">SUM(F11:F14)</f>
+      <c r="E15" s="9"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="15">
+        <f>SUM(F11:F15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="15">
+        <f t="shared" ref="G16:O16" si="0">SUM(G11:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="15">
+      <c r="I16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="15">
+      <c r="M16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="15">
+      <c r="N16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="15">
+      <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E17" s="12" t="s">
-        <v>17</v>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1476,445 +1460,474 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" ref="F18" si="1">SUM(F16:F17)</f>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="15">
+        <f>SUM(F16:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
-        <f t="shared" ref="G18:N18" si="2">SUM(G16:G17)</f>
+      <c r="G18" s="15">
+        <f t="shared" ref="G18:O18" si="1">SUM(G16:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="18">
-        <f t="shared" si="2"/>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="18">
-        <f t="shared" si="2"/>
+      <c r="I18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="18">
-        <f t="shared" si="2"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="18">
-        <f t="shared" si="2"/>
+      <c r="L18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="18">
-        <f t="shared" si="2"/>
+      <c r="M18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="18">
-        <f t="shared" si="2"/>
+      <c r="N18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="18">
-        <f>SUM(O16:O17)</f>
+      <c r="O18" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" ref="F19" si="3">+F15+F18</f>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" ref="F21" si="2">SUM(F19:F20)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" ref="G19:N19" si="4">+G15+G18</f>
+      <c r="G21" s="18">
+        <f t="shared" ref="G21:N21" si="3">SUM(G19:G20)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="15">
-        <f t="shared" si="4"/>
+      <c r="H21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="15">
-        <f t="shared" si="4"/>
+      <c r="I21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="4"/>
+      <c r="J21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="15">
-        <f t="shared" si="4"/>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="15">
-        <f t="shared" si="4"/>
+      <c r="L21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="15">
-        <f t="shared" si="4"/>
+      <c r="M21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="15">
-        <f t="shared" si="4"/>
+      <c r="N21" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="15">
-        <f>+O15+O18</f>
+      <c r="O21" s="18">
+        <f>SUM(O19:O20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="19">
-        <f t="shared" ref="F22:G22" si="5">SUM(F19:F21)</f>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ref="F22" si="4">+F18+F21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:N22" si="5">+G18+G21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H22" s="19">
-        <f t="shared" ref="H22" si="6">SUM(H19:H21)</f>
+      <c r="I22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <f t="shared" ref="I22" si="7">SUM(I19:I21)</f>
+      <c r="J22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22" s="19">
-        <f t="shared" ref="J22" si="8">SUM(J19:J21)</f>
+      <c r="K22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K22" s="19">
-        <f t="shared" ref="K22:O22" si="9">SUM(K19:K21)</f>
+      <c r="L22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="19">
-        <f t="shared" si="9"/>
+      <c r="M22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M22" s="19">
-        <f t="shared" si="9"/>
+      <c r="N22" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N22" s="19">
-        <f t="shared" si="9"/>
+      <c r="O22" s="15">
+        <f>+O18+O21</f>
         <v>0</v>
       </c>
-      <c r="O22" s="19">
-        <f t="shared" si="9"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="5:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="19">
+        <f>SUM(F22:F23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="21" t="str">
-        <f t="shared" ref="F24:O24" si="10">IFERROR(+F11/E11-1,"n/a")</f>
+      <c r="G24" s="19">
+        <f>SUM(G22:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <f>SUM(H22:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <f>SUM(I22:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <f>SUM(J22:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <f>SUM(K22:K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="19">
+        <f>SUM(L22:L23)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="19">
+        <f>SUM(M22:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <f>SUM(N22:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <f>SUM(O22:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="21" t="str">
+        <f>IFERROR(+F11/E11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="G26" s="21" t="str">
+        <f>IFERROR(+G11/F11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="H26" s="21" t="str">
+        <f>IFERROR(+H11/G11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="I24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="I26" s="21" t="str">
+        <f>IFERROR(+I11/H11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="J24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="J26" s="21" t="str">
+        <f>IFERROR(+J11/I11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="K24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="K26" s="21" t="str">
+        <f>IFERROR(+K11/J11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="L26" s="21" t="str">
+        <f>IFERROR(+L11/K11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="M26" s="21" t="str">
+        <f>IFERROR(+M11/L11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="N24" s="21" t="str">
-        <f t="shared" si="10"/>
+      <c r="N26" s="21" t="str">
+        <f>IFERROR(+N11/M11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O24" s="22" t="str">
-        <f t="shared" si="10"/>
+      <c r="O26" s="22" t="str">
+        <f>IFERROR(+O11/N11-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="23" t="str">
-        <f t="shared" ref="F25:O25" si="11">IFERROR(+F15/F11,"n/a")</f>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="23" t="str">
+        <f>IFERROR(+F16/F11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="G27" s="23" t="str">
+        <f>IFERROR(+G16/G11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="H27" s="23" t="str">
+        <f>IFERROR(+H16/H11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="I25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="I27" s="23" t="str">
+        <f>IFERROR(+I16/I11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="J25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="J27" s="23" t="str">
+        <f>IFERROR(+J16/J11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="K25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="K27" s="23" t="str">
+        <f>IFERROR(+K16/K11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="L27" s="23" t="str">
+        <f>IFERROR(+L16/L11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="M27" s="23" t="str">
+        <f>IFERROR(+M16/M11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="N25" s="23" t="str">
-        <f t="shared" si="11"/>
+      <c r="N27" s="23" t="str">
+        <f>IFERROR(+N16/N11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O25" s="24" t="str">
-        <f t="shared" si="11"/>
+      <c r="O27" s="23" t="str">
+        <f>IFERROR(+O16/O11,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="23" t="e">
-        <f>-F20/F19</f>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="23" t="str">
+        <f>IFERROR(+F18/F11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="G28" s="23" t="str">
+        <f>IFERROR(+G18/G11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="H28" s="23" t="str">
+        <f>IFERROR(+H18/H11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="I28" s="23" t="str">
+        <f>IFERROR(+I18/I11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="J28" s="23" t="str">
+        <f>IFERROR(+J18/J11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="K28" s="23" t="str">
+        <f>IFERROR(+K18/K11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="L28" s="23" t="str">
+        <f>IFERROR(+L18/L11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M28" s="23" t="str">
+        <f>IFERROR(+M18/M11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="N28" s="23" t="str">
+        <f>IFERROR(+N18/N11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="O28" s="24" t="str">
+        <f>IFERROR(+O18/O11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="23" t="e">
+        <f>-F23/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="23" t="e">
-        <f t="shared" ref="G26:O26" si="12">-G20/G19</f>
+      <c r="G29" s="23" t="e">
+        <f>-G23/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="H29" s="23" t="e">
+        <f>-H23/H22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="I29" s="23" t="e">
+        <f>-I23/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="J29" s="23" t="e">
+        <f>-J23/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="K29" s="23" t="e">
+        <f>-K23/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="L29" s="23" t="e">
+        <f>-L23/L22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="M29" s="23" t="e">
+        <f>-M23/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="23" t="e">
-        <f t="shared" si="12"/>
+      <c r="N29" s="23" t="e">
+        <f>-N23/N22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="24" t="e">
-        <f t="shared" si="12"/>
+      <c r="O29" s="24" t="e">
+        <f>-O23/O22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E27" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="25" t="str">
-        <f t="shared" ref="F27" si="13">IFERROR(+F22/E22-1,"n/a")</f>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="25" t="str">
+        <f t="shared" ref="F30" si="6">IFERROR(+F24/E24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G27" s="25" t="str">
-        <f t="shared" ref="G27" si="14">IFERROR(+G22/F22-1,"n/a")</f>
+      <c r="G30" s="25" t="str">
+        <f t="shared" ref="G30" si="7">IFERROR(+G24/F24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H27" s="25" t="str">
-        <f t="shared" ref="H27:O27" si="15">IFERROR(+H22/G22-1,"n/a")</f>
+      <c r="H30" s="25" t="str">
+        <f t="shared" ref="H30:O30" si="8">IFERROR(+H24/G24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="I27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="I30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="J27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="J30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="K27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="K30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="L27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="L30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="M27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="M30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="N27" s="25" t="str">
-        <f t="shared" si="15"/>
+      <c r="N30" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
-      <c r="O27" s="26" t="str">
-        <f t="shared" si="15"/>
+      <c r="O30" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="28" spans="3:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C32" s="13" t="b" cm="1">
-        <f t="array" ref="C32">AND(G32:O32&lt;$B$1,G32:O32&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="17">
-        <f t="shared" ref="F32:O32" si="16">+F31-F22</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="5:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -1926,124 +1939,129 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="2" t="str">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="13" t="b" cm="1">
+        <f t="array" ref="C35">AND(G35:O35&lt;$B$1,G35:O35&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" ref="F35:O35" si="9">+F34-F24</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v xml:space="preserve"> - BS</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="6">
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E38" s="6">
         <f>+Input!$E$14</f>
         <v>0</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E37" s="9"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E38" s="9"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="15">
-        <f t="shared" ref="F39" si="17">SUM(F37:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <f t="shared" ref="G39:M39" si="18">SUM(G37:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="15">
-        <f>SUM(N37:N38)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="15">
-        <f>SUM(O37:O38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E40" s="9" t="s">
-        <v>34</v>
+      <c r="F38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2056,9 +2074,9 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E41" s="9" t="s">
-        <v>35</v>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E41" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2071,8 +2089,10 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E42" s="9"/>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E42" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -2084,213 +2104,125 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E43" s="9"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="15">
-        <f t="shared" ref="F44:G44" si="19">SUM(F40:F43)</f>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C46" s="13" t="b" cm="1">
+        <f t="array" ref="C46">AND(G46:O46&lt;$B$1,G46:O46&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E48" s="2" t="str">
+        <f>Input!$E$8&amp;" - CF"</f>
+        <v xml:space="preserve"> - CF</v>
+      </c>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E49" s="6">
+        <f>+Input!$E$14</f>
         <v>0</v>
       </c>
-      <c r="G44" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
-        <f t="shared" ref="H44" si="20">SUM(H40:H43)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="15">
-        <f t="shared" ref="I44" si="21">SUM(I40:I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="15">
-        <f t="shared" ref="J44" si="22">SUM(J40:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="15">
-        <f t="shared" ref="K44" si="23">SUM(K40:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="15">
-        <f t="shared" ref="L44" si="24">SUM(L40:L43)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="15">
-        <f t="shared" ref="M44" si="25">SUM(M40:M43)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="15">
-        <f t="shared" ref="N44" si="26">SUM(N40:N43)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="15">
-        <f>SUM(O40:O43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="19">
-        <f t="shared" ref="F45" si="27">+F44+F39</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" ref="G45:N45" si="28">+G44+G39</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="19">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="19">
-        <f>+O44+O39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-    </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C50" s="13" t="b" cm="1">
-        <f t="array" ref="C50">AND(G50:O50&lt;$B$1,G50:O50&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="17">
-        <f>+F49-F45</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <f t="shared" ref="G50:O50" si="29">+G49-G45</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E51" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -2302,129 +2234,94 @@
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E52" s="2" t="str">
-        <f>Input!$E$8&amp;" - CF"</f>
-        <v xml:space="preserve"> - CF</v>
-      </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="6">
-        <f>+Input!$E$14</f>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" ref="F53:N53" si="10">+F51+F52</f>
         <v>0</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E56" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="15">
-        <f t="shared" ref="F57:N57" si="30">+F55+F56</f>
+      <c r="G53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G57" s="15">
-        <f t="shared" si="30"/>
+      <c r="H53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H57" s="15">
-        <f t="shared" si="30"/>
+      <c r="I53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I57" s="15">
-        <f t="shared" si="30"/>
+      <c r="J53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J57" s="15">
-        <f t="shared" si="30"/>
+      <c r="K53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K57" s="15">
-        <f t="shared" si="30"/>
+      <c r="L53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L57" s="15">
-        <f t="shared" si="30"/>
+      <c r="M53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M57" s="15">
-        <f t="shared" si="30"/>
+      <c r="N53" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N57" s="15">
-        <f t="shared" si="30"/>
+      <c r="O53" s="15">
+        <f>+O51+O52</f>
         <v>0</v>
       </c>
-      <c r="O57" s="15">
-        <f>+O55+O56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E58" s="9" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -2436,7 +2333,31 @@
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -2448,7 +2369,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2460,7 +2381,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2472,7 +2393,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -10692,66 +10613,18 @@
       <c r="N748" s="14"/>
       <c r="O748" s="14"/>
     </row>
-    <row r="749" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F749" s="14"/>
-      <c r="G749" s="14"/>
-      <c r="H749" s="14"/>
-      <c r="I749" s="14"/>
-      <c r="J749" s="14"/>
-      <c r="K749" s="14"/>
-      <c r="L749" s="14"/>
-      <c r="M749" s="14"/>
-      <c r="N749" s="14"/>
-      <c r="O749" s="14"/>
-    </row>
-    <row r="750" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F750" s="14"/>
-      <c r="G750" s="14"/>
-      <c r="H750" s="14"/>
-      <c r="I750" s="14"/>
-      <c r="J750" s="14"/>
-      <c r="K750" s="14"/>
-      <c r="L750" s="14"/>
-      <c r="M750" s="14"/>
-      <c r="N750" s="14"/>
-      <c r="O750" s="14"/>
-    </row>
-    <row r="751" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F751" s="14"/>
-      <c r="G751" s="14"/>
-      <c r="H751" s="14"/>
-      <c r="I751" s="14"/>
-      <c r="J751" s="14"/>
-      <c r="K751" s="14"/>
-      <c r="L751" s="14"/>
-      <c r="M751" s="14"/>
-      <c r="N751" s="14"/>
-      <c r="O751" s="14"/>
-    </row>
-    <row r="752" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F752" s="14"/>
-      <c r="G752" s="14"/>
-      <c r="H752" s="14"/>
-      <c r="I752" s="14"/>
-      <c r="J752" s="14"/>
-      <c r="K752" s="14"/>
-      <c r="L752" s="14"/>
-      <c r="M752" s="14"/>
-      <c r="N752" s="14"/>
-      <c r="O752" s="14"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C46">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/clean_model.xlsx
+++ b/clean_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12954A3-63BF-4389-A473-A849B61C6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4311A97F-FADA-4425-99CA-B10C6C9ECFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39105" yWindow="-1545" windowWidth="31155" windowHeight="17820" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="35910" yWindow="-1275" windowWidth="22890" windowHeight="15240" tabRatio="767" activeTab="1" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -333,6 +333,9 @@
   <si>
     <t>FinCF</t>
   </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -567,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,9 +647,6 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1127,13 +1127,17 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>46022</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="36" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1178,9 +1182,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="33">
-        <v>0.01</v>
-      </c>
+      <c r="K18" s="33"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -1191,33 +1193,25 @@
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="35">
-        <v>0.04</v>
-      </c>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="35">
-        <v>0.04</v>
-      </c>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="7">
-        <v>0.78</v>
-      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="35">
-        <v>0</v>
-      </c>
+      <c r="E25" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,7 +1242,7 @@
   </sheetPr>
   <dimension ref="A1:O748"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -1446,7 +1440,7 @@
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="16"/>
@@ -1645,43 +1639,43 @@
         <v>15</v>
       </c>
       <c r="F24" s="19">
-        <f>SUM(F22:F23)</f>
+        <f t="shared" ref="F24:O24" si="6">SUM(F22:F23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f>SUM(G22:G23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>SUM(H22:H23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>SUM(I22:I23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="19">
-        <f>SUM(J22:J23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K24" s="19">
-        <f>SUM(K22:K23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <f>SUM(L22:L23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <f>SUM(M22:M23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="19">
-        <f>SUM(N22:N23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="19">
-        <f>SUM(O22:O23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1691,43 +1685,43 @@
         <v>29</v>
       </c>
       <c r="F26" s="21" t="str">
-        <f>IFERROR(+F11/E11-1,"n/a")</f>
+        <f t="shared" ref="F26:O26" si="7">IFERROR(+F11/E11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f>IFERROR(+G11/F11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="H26" s="21" t="str">
-        <f>IFERROR(+H11/G11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="I26" s="21" t="str">
-        <f>IFERROR(+I11/H11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="J26" s="21" t="str">
-        <f>IFERROR(+J11/I11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="K26" s="21" t="str">
-        <f>IFERROR(+K11/J11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="L26" s="21" t="str">
-        <f>IFERROR(+L11/K11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f>IFERROR(+M11/L11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="N26" s="21" t="str">
-        <f>IFERROR(+N11/M11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
       <c r="O26" s="22" t="str">
-        <f>IFERROR(+O11/N11-1,"n/a")</f>
+        <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1736,43 +1730,43 @@
         <v>71</v>
       </c>
       <c r="F27" s="23" t="str">
-        <f>IFERROR(+F16/F11,"n/a")</f>
+        <f t="shared" ref="F27:O27" si="8">IFERROR(+F16/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G27" s="23" t="str">
-        <f>IFERROR(+G16/G11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="H27" s="23" t="str">
-        <f>IFERROR(+H16/H11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="I27" s="23" t="str">
-        <f>IFERROR(+I16/I11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="J27" s="23" t="str">
-        <f>IFERROR(+J16/J11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="K27" s="23" t="str">
-        <f>IFERROR(+K16/K11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="L27" s="23" t="str">
-        <f>IFERROR(+L16/L11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="M27" s="23" t="str">
-        <f>IFERROR(+M16/M11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="N27" s="23" t="str">
-        <f>IFERROR(+N16/N11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
       <c r="O27" s="23" t="str">
-        <f>IFERROR(+O16/O11,"n/a")</f>
+        <f t="shared" si="8"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1781,43 +1775,43 @@
         <v>30</v>
       </c>
       <c r="F28" s="23" t="str">
-        <f>IFERROR(+F18/F11,"n/a")</f>
+        <f t="shared" ref="F28:O28" si="9">IFERROR(+F18/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G28" s="23" t="str">
-        <f>IFERROR(+G18/G11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="H28" s="23" t="str">
-        <f>IFERROR(+H18/H11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="I28" s="23" t="str">
-        <f>IFERROR(+I18/I11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="J28" s="23" t="str">
-        <f>IFERROR(+J18/J11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="K28" s="23" t="str">
-        <f>IFERROR(+K18/K11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="L28" s="23" t="str">
-        <f>IFERROR(+L18/L11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="M28" s="23" t="str">
-        <f>IFERROR(+M18/M11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="N28" s="23" t="str">
-        <f>IFERROR(+N18/N11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
       <c r="O28" s="24" t="str">
-        <f>IFERROR(+O18/O11,"n/a")</f>
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1826,43 +1820,43 @@
         <v>47</v>
       </c>
       <c r="F29" s="23" t="e">
-        <f>-F23/F22</f>
+        <f t="shared" ref="F29:O29" si="10">-F23/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="23" t="e">
-        <f>-G23/G22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="23" t="e">
-        <f>-H23/H22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="23" t="e">
-        <f>-I23/I22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="23" t="e">
-        <f>-J23/J22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="23" t="e">
-        <f>-K23/K22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="23" t="e">
-        <f>-L23/L22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="23" t="e">
-        <f>-M23/M22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="23" t="e">
-        <f>-N23/N22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="24" t="e">
-        <f>-O23/O22</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1871,43 +1865,43 @@
         <v>31</v>
       </c>
       <c r="F30" s="25" t="str">
-        <f t="shared" ref="F30" si="6">IFERROR(+F24/E24-1,"n/a")</f>
+        <f t="shared" ref="F30" si="11">IFERROR(+F24/E24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G30" s="25" t="str">
-        <f t="shared" ref="G30" si="7">IFERROR(+G24/F24-1,"n/a")</f>
+        <f t="shared" ref="G30" si="12">IFERROR(+G24/F24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H30" s="25" t="str">
-        <f t="shared" ref="H30:O30" si="8">IFERROR(+H24/G24-1,"n/a")</f>
+        <f t="shared" ref="H30:O30" si="13">IFERROR(+H24/G24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="I30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="J30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="K30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="L30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="M30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="N30" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
       <c r="O30" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1963,43 +1957,43 @@
         <v>16</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" ref="F35:O35" si="9">+F34-F24</f>
+        <f t="shared" ref="F35:O35" si="14">+F34-F24</f>
         <v>0</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O35" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2254,39 +2248,39 @@
         <v>28</v>
       </c>
       <c r="F53" s="15">
-        <f t="shared" ref="F53:N53" si="10">+F51+F52</f>
+        <f t="shared" ref="F53:N53" si="15">+F51+F52</f>
         <v>0</v>
       </c>
       <c r="G53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O53" s="15">

--- a/clean_model.xlsx
+++ b/clean_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB030B35-C476-4B88-B273-8066860EFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02CAC72-2F0E-4C10-BE28-8FA35544B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3015" windowWidth="18855" windowHeight="12690" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="22440" yWindow="5880" windowWidth="18855" windowHeight="12690" tabRatio="767" activeTab="1" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -355,9 +355,6 @@
     <t>Q1 27</t>
   </si>
   <si>
-    <t>Q2 27</t>
-  </si>
-  <si>
     <t>Mar 22</t>
   </si>
   <si>
@@ -377,6 +374,18 @@
   </si>
   <si>
     <t>Mar 25</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Gross-margin</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1127,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,10 +1300,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AG748"/>
+  <dimension ref="A1:AF749"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1305,43 +1314,43 @@
     <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="b">
         <f>AND(C:C)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="str">
         <f ca="1">MID(CELL("filename",D3),FIND("]",CELL("filename",D3))+1,256)</f>
         <v>Historical</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="str">
         <f>Input!$A$2</f>
         <v>Indicative valuation of ###: Public information</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="str">
         <f>Input!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="str">
         <f>Input!$E$8&amp;" - P&amp;L"</f>
         <v xml:space="preserve"> - P&amp;L</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E9" s="6">
         <f>+Input!$E$14</f>
         <v>0</v>
@@ -1424,12 +1433,9 @@
       <c r="AF9" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="AG9" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1460,66 +1466,150 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E12" s="9"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E13" s="9"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E14" s="9"/>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="15">
+        <f>SUM(F11:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" ref="G13:J13" si="0">SUM(G11:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" ref="L13:AF13" si="1">SUM(L11:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E14" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1547,7 +1637,7 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E15" s="9"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1576,112 +1666,112 @@
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" ref="F16:J16" si="0">SUM(F11:F15)</f>
+        <f t="shared" ref="F16:J16" si="2">SUM(F11:F15)</f>
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" ref="L16:AF16" si="1">SUM(L11:L15)</f>
+        <f t="shared" ref="L16:AF16" si="3">SUM(L11:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1721,107 +1811,107 @@
         <v>53</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ref="F18:J18" si="2">SUM(F16:F17)</f>
+        <f t="shared" ref="F18:J18" si="4">SUM(F16:F17)</f>
         <v>0</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" ref="L18:AF18" si="3">SUM(L16:L17)</f>
+        <f t="shared" ref="L18:AF18" si="5">SUM(L16:L17)</f>
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1892,19 +1982,19 @@
         <v>52</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" ref="F21:I21" si="4">SUM(F19:F20)</f>
+        <f t="shared" ref="F21:I21" si="6">SUM(F19:F20)</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J21" s="18">
@@ -1912,87 +2002,87 @@
         <v>0</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" ref="L21:AF21" si="5">SUM(L19:L20)</f>
+        <f t="shared" ref="L21:AF21" si="7">SUM(L19:L20)</f>
         <v>0</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2001,19 +2091,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" ref="F22:I22" si="6">+F18+F21</f>
+        <f t="shared" ref="F22:I22" si="8">+F18+F21</f>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J22" s="15">
@@ -2021,87 +2111,87 @@
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" ref="L22:AF22" si="7">+L18+L21</f>
+        <f t="shared" ref="L22:AF22" si="9">+L18+L21</f>
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2141,107 +2231,107 @@
         <v>15</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" ref="F24:J24" si="8">SUM(F22:F23)</f>
+        <f t="shared" ref="F24:J24" si="10">SUM(F22:F23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" ref="L24:AF24" si="9">SUM(L22:L23)</f>
+        <f t="shared" ref="L24:AF24" si="11">SUM(L22:L23)</f>
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF24" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2255,575 +2345,656 @@
         <v>n/a</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f t="shared" ref="G26:L26" si="10">IFERROR(+G11/F11-1,"n/a")</f>
+        <f t="shared" ref="G26:L26" si="12">IFERROR(+G11/F11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H26" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="I26" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="J26" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="L26" s="21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="shared" ref="M26" si="11">IFERROR(+M11/L11-1,"n/a")</f>
+        <f t="shared" ref="M26" si="13">IFERROR(+M11/L11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="N26" s="21" t="str">
-        <f t="shared" ref="N26" si="12">IFERROR(+N11/M11-1,"n/a")</f>
+        <f t="shared" ref="N26" si="14">IFERROR(+N11/M11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" ref="O26" si="13">IFERROR(+O11/N11-1,"n/a")</f>
+        <f t="shared" ref="O26" si="15">IFERROR(+O11/N11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P26" s="21" t="str">
-        <f t="shared" ref="P26" si="14">IFERROR(+P11/O11-1,"n/a")</f>
+        <f t="shared" ref="P26" si="16">IFERROR(+P11/O11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Q26" s="21" t="str">
-        <f t="shared" ref="Q26" si="15">IFERROR(+Q11/P11-1,"n/a")</f>
+        <f t="shared" ref="Q26" si="17">IFERROR(+Q11/P11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="R26" s="21" t="str">
-        <f t="shared" ref="R26" si="16">IFERROR(+R11/Q11-1,"n/a")</f>
+        <f t="shared" ref="R26" si="18">IFERROR(+R11/Q11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="S26" s="21" t="str">
-        <f t="shared" ref="S26" si="17">IFERROR(+S11/R11-1,"n/a")</f>
+        <f t="shared" ref="S26" si="19">IFERROR(+S11/R11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="T26" s="21" t="str">
-        <f t="shared" ref="T26" si="18">IFERROR(+T11/S11-1,"n/a")</f>
+        <f t="shared" ref="T26" si="20">IFERROR(+T11/S11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="U26" s="21" t="str">
-        <f t="shared" ref="U26" si="19">IFERROR(+U11/T11-1,"n/a")</f>
+        <f t="shared" ref="U26" si="21">IFERROR(+U11/T11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="V26" s="21" t="str">
-        <f t="shared" ref="V26" si="20">IFERROR(+V11/U11-1,"n/a")</f>
+        <f t="shared" ref="V26" si="22">IFERROR(+V11/U11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="W26" s="21" t="str">
-        <f t="shared" ref="W26" si="21">IFERROR(+W11/V11-1,"n/a")</f>
+        <f t="shared" ref="W26" si="23">IFERROR(+W11/V11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="X26" s="21" t="str">
-        <f t="shared" ref="X26" si="22">IFERROR(+X11/W11-1,"n/a")</f>
+        <f t="shared" ref="X26" si="24">IFERROR(+X11/W11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Y26" s="21" t="str">
-        <f t="shared" ref="Y26" si="23">IFERROR(+Y11/X11-1,"n/a")</f>
+        <f t="shared" ref="Y26" si="25">IFERROR(+Y11/X11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Z26" s="21" t="str">
-        <f t="shared" ref="Z26" si="24">IFERROR(+Z11/Y11-1,"n/a")</f>
+        <f t="shared" ref="Z26" si="26">IFERROR(+Z11/Y11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AA26" s="21" t="str">
-        <f t="shared" ref="AA26" si="25">IFERROR(+AA11/Z11-1,"n/a")</f>
+        <f t="shared" ref="AA26" si="27">IFERROR(+AA11/Z11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AB26" s="21" t="str">
-        <f t="shared" ref="AB26" si="26">IFERROR(+AB11/AA11-1,"n/a")</f>
+        <f t="shared" ref="AB26" si="28">IFERROR(+AB11/AA11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AC26" s="21" t="str">
-        <f t="shared" ref="AC26" si="27">IFERROR(+AC11/AB11-1,"n/a")</f>
+        <f t="shared" ref="AC26" si="29">IFERROR(+AC11/AB11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AD26" s="21" t="str">
-        <f t="shared" ref="AD26" si="28">IFERROR(+AD11/AC11-1,"n/a")</f>
+        <f t="shared" ref="AD26" si="30">IFERROR(+AD11/AC11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AE26" s="21" t="str">
-        <f t="shared" ref="AE26" si="29">IFERROR(+AE11/AD11-1,"n/a")</f>
+        <f t="shared" ref="AE26" si="31">IFERROR(+AE11/AD11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AF26" s="21" t="str">
-        <f t="shared" ref="AF26" si="30">IFERROR(+AF11/AE11-1,"n/a")</f>
+        <f t="shared" ref="AF26" si="32">IFERROR(+AF11/AE11-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="27" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E27" s="30" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F27" s="23" t="str">
-        <f t="shared" ref="F27:J27" si="31">IFERROR(+F16/F11,"n/a")</f>
+        <f>IFERROR(+F13/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G27" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="G27:J27" si="33">IFERROR(+G13/G11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H27" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
       <c r="I27" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
       <c r="J27" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>n/a</v>
       </c>
       <c r="L27" s="23" t="str">
-        <f t="shared" ref="L27:AF27" si="32">IFERROR(+L16/L11,"n/a")</f>
+        <f t="shared" ref="L27:AF27" si="34">IFERROR(+L13/L11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="N27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="O27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="P27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="Q27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="R27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="S27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="T27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="U27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="V27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="W27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="X27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="Y27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="Z27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AA27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AB27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AC27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AD27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AE27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
       <c r="AF27" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="28" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E28" s="30" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F28" s="23" t="str">
-        <f t="shared" ref="F28:J28" si="33">IFERROR(+F18/F11,"n/a")</f>
+        <f t="shared" ref="F27:J28" si="35">IFERROR(+F16/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G28" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>n/a</v>
       </c>
       <c r="H28" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>n/a</v>
       </c>
       <c r="I28" s="23" t="str">
-        <f t="shared" si="33"/>
-        <v>n/a</v>
-      </c>
-      <c r="J28" s="24" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
+        <v>n/a</v>
+      </c>
+      <c r="J28" s="23" t="str">
+        <f t="shared" si="35"/>
         <v>n/a</v>
       </c>
       <c r="L28" s="23" t="str">
-        <f t="shared" ref="L28:AF28" si="34">IFERROR(+L18/L11,"n/a")</f>
+        <f t="shared" ref="L28:AF28" si="36">IFERROR(+L16/L11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="N28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="O28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="P28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="Q28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="R28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="S28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="T28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="U28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="V28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="W28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="X28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="Y28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="Z28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AA28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AB28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AC28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AD28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AE28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
       <c r="AF28" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="29" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E29" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" ref="F29:J29" si="37">IFERROR(+F18/F11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="G29" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>n/a</v>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>n/a</v>
+      </c>
+      <c r="I29" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>n/a</v>
+      </c>
+      <c r="J29" s="24" t="str">
+        <f t="shared" si="37"/>
+        <v>n/a</v>
+      </c>
+      <c r="L29" s="23" t="str">
+        <f t="shared" ref="L29:AF29" si="38">IFERROR(+L18/L11,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="N29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="O29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="P29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="Q29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="R29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="S29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="T29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="U29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="V29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="W29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="X29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="Y29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="Z29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AA29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AB29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AC29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AD29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AE29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+      <c r="AF29" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="30" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="23" t="e">
-        <f t="shared" ref="F29:J29" si="35">-F23/F22</f>
+      <c r="F30" s="23" t="e">
+        <f t="shared" ref="F30:J30" si="39">-F23/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="23" t="e">
-        <f t="shared" si="35"/>
+      <c r="G30" s="23" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="23" t="e">
-        <f t="shared" si="35"/>
+      <c r="H30" s="23" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="23" t="e">
-        <f t="shared" si="35"/>
+      <c r="I30" s="23" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="24" t="e">
-        <f t="shared" si="35"/>
+      <c r="J30" s="24" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="23" t="e">
-        <f t="shared" ref="L29:AF29" si="36">-L23/L22</f>
+      <c r="L30" s="23" t="e">
+        <f t="shared" ref="L30:AF30" si="40">-L23/L22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="M30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="N30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="O30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="P30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="Q30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="R30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="S30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="T30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="U30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="V30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="W30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="X30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="Y30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="Z30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AA30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AB30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AC30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AD30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AE30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF29" s="23" t="e">
-        <f t="shared" si="36"/>
+      <c r="AF30" s="23" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E30" s="31" t="s">
+    <row r="31" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="25" t="str">
+      <c r="F31" s="25" t="str">
         <f>IFERROR(+F24/#REF!-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G30" s="25" t="str">
-        <f t="shared" ref="G30:L30" si="37">IFERROR(+G24/F24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="H30" s="25" t="str">
-        <f t="shared" si="37"/>
-        <v>n/a</v>
-      </c>
-      <c r="I30" s="25" t="str">
-        <f t="shared" si="37"/>
-        <v>n/a</v>
-      </c>
-      <c r="J30" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>n/a</v>
-      </c>
-      <c r="L30" s="25" t="str">
-        <f t="shared" si="37"/>
-        <v>n/a</v>
-      </c>
-      <c r="M30" s="25" t="str">
-        <f t="shared" ref="M30" si="38">IFERROR(+M24/L24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="N30" s="25" t="str">
-        <f t="shared" ref="N30" si="39">IFERROR(+N24/M24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="O30" s="25" t="str">
-        <f t="shared" ref="O30" si="40">IFERROR(+O24/N24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="P30" s="25" t="str">
-        <f t="shared" ref="P30" si="41">IFERROR(+P24/O24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="Q30" s="25" t="str">
-        <f t="shared" ref="Q30" si="42">IFERROR(+Q24/P24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="R30" s="25" t="str">
-        <f t="shared" ref="R30" si="43">IFERROR(+R24/Q24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="S30" s="25" t="str">
-        <f t="shared" ref="S30" si="44">IFERROR(+S24/R24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="T30" s="25" t="str">
-        <f t="shared" ref="T30" si="45">IFERROR(+T24/S24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="U30" s="25" t="str">
-        <f t="shared" ref="U30" si="46">IFERROR(+U24/T24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="V30" s="25" t="str">
-        <f t="shared" ref="V30" si="47">IFERROR(+V24/U24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="W30" s="25" t="str">
-        <f t="shared" ref="W30" si="48">IFERROR(+W24/V24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="X30" s="25" t="str">
-        <f t="shared" ref="X30" si="49">IFERROR(+X24/W24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="Y30" s="25" t="str">
-        <f t="shared" ref="Y30" si="50">IFERROR(+Y24/X24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="Z30" s="25" t="str">
-        <f t="shared" ref="Z30" si="51">IFERROR(+Z24/Y24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AA30" s="25" t="str">
-        <f t="shared" ref="AA30" si="52">IFERROR(+AA24/Z24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AB30" s="25" t="str">
-        <f t="shared" ref="AB30" si="53">IFERROR(+AB24/AA24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AC30" s="25" t="str">
-        <f t="shared" ref="AC30" si="54">IFERROR(+AC24/AB24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AD30" s="25" t="str">
-        <f t="shared" ref="AD30" si="55">IFERROR(+AD24/AC24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AE30" s="25" t="str">
-        <f t="shared" ref="AE30" si="56">IFERROR(+AE24/AD24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="AF30" s="25" t="str">
-        <f t="shared" ref="AF30" si="57">IFERROR(+AF24/AE24-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="31" spans="5:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="27" t="s">
+      <c r="G31" s="25" t="str">
+        <f t="shared" ref="G31:L31" si="41">IFERROR(+G24/F24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="H31" s="25" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="I31" s="25" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="J31" s="26" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="L31" s="25" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="M31" s="25" t="str">
+        <f t="shared" ref="M31" si="42">IFERROR(+M24/L24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="N31" s="25" t="str">
+        <f t="shared" ref="N31" si="43">IFERROR(+N24/M24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="O31" s="25" t="str">
+        <f t="shared" ref="O31" si="44">IFERROR(+O24/N24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="P31" s="25" t="str">
+        <f t="shared" ref="P31" si="45">IFERROR(+P24/O24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="Q31" s="25" t="str">
+        <f t="shared" ref="Q31" si="46">IFERROR(+Q24/P24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="R31" s="25" t="str">
+        <f t="shared" ref="R31" si="47">IFERROR(+R24/Q24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="S31" s="25" t="str">
+        <f t="shared" ref="S31" si="48">IFERROR(+S24/R24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="T31" s="25" t="str">
+        <f t="shared" ref="T31" si="49">IFERROR(+T24/S24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="U31" s="25" t="str">
+        <f t="shared" ref="U31" si="50">IFERROR(+U24/T24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="V31" s="25" t="str">
+        <f t="shared" ref="V31" si="51">IFERROR(+V24/U24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="W31" s="25" t="str">
+        <f t="shared" ref="W31" si="52">IFERROR(+W24/V24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="X31" s="25" t="str">
+        <f t="shared" ref="X31" si="53">IFERROR(+X24/W24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="Y31" s="25" t="str">
+        <f t="shared" ref="Y31" si="54">IFERROR(+Y24/X24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="Z31" s="25" t="str">
+        <f t="shared" ref="Z31" si="55">IFERROR(+Z24/Y24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AA31" s="25" t="str">
+        <f t="shared" ref="AA31" si="56">IFERROR(+AA24/Z24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AB31" s="25" t="str">
+        <f t="shared" ref="AB31" si="57">IFERROR(+AB24/AA24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AC31" s="25" t="str">
+        <f t="shared" ref="AC31" si="58">IFERROR(+AC24/AB24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AD31" s="25" t="str">
+        <f t="shared" ref="AD31" si="59">IFERROR(+AD24/AC24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AE31" s="25" t="str">
+        <f t="shared" ref="AE31" si="60">IFERROR(+AE24/AD24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="AF31" s="25" t="str">
+        <f t="shared" ref="AF31" si="61">IFERROR(+AF24/AE24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="32" spans="5:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-    </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -2852,239 +3023,256 @@
       <c r="AF33" s="14"/>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-    </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C35" s="13" t="b" cm="1">
-        <f t="array" ref="C35">AND(F35:J35&lt;$B$1,F35:J35&gt;-$B$1)</f>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C36" s="13" t="b" cm="1">
+        <f t="array" ref="C36">AND(F36:J36&lt;$B$1,F36:J36&gt;-$B$1)</f>
         <v>1</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="17">
-        <f t="shared" ref="F35:J35" si="58">+F34-F24</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" ref="L35:AF35" si="59">+L34-L24</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="17">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="F36" s="17">
+        <f t="shared" ref="F36:J36" si="62">+F35-F24</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <f t="shared" ref="L36:AF36" si="63">+L35-L24</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E37" s="2" t="str">
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v xml:space="preserve"> - BS</v>
       </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E38" s="6">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E39" s="6">
         <f>+Input!$E$14</f>
         <v>0</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F39" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G39" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="20" t="s">
+      <c r="O39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O38" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P38" s="20" t="s">
+      <c r="Q39" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="Q38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R38" s="20" t="s">
+      <c r="S39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="S38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="T38" s="20" t="s">
+      <c r="U39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U38" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V38" s="20" t="s">
+      <c r="W39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="X39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="X38" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E40" s="2" t="s">
+    </row>
+    <row r="40" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E41" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -3095,7 +3283,7 @@
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E42" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -3105,7 +3293,9 @@
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E43" s="9"/>
+      <c r="E43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3114,6 +3304,7 @@
       <c r="L43" s="14"/>
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E44" s="9"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -3122,35 +3313,16 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E46" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-    </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C46" s="13" t="b" cm="1">
-        <f t="array" ref="C46">AND(F46:J46&lt;$B$1,F46:J46&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -3172,208 +3344,228 @@
       <c r="X46" s="17"/>
     </row>
     <row r="47" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="L47" s="14"/>
+      <c r="C47" s="13" t="b" cm="1">
+        <f t="array" ref="C47">AND(F47:J47&lt;$B$1,F47:J47&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
     </row>
     <row r="48" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E48" s="2" t="str">
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v xml:space="preserve"> - CF</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E49" s="6">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E50" s="6">
         <f>+Input!$E$14</f>
         <v>0</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G50" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H50" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="20" t="s">
+      <c r="J50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="L50" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="20" t="s">
+      <c r="O50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O49" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P49" s="20" t="s">
+      <c r="Q50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="Q49" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="20" t="s">
+      <c r="S50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="S49" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="T49" s="20" t="s">
+      <c r="U50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V50" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V49" s="20" t="s">
+      <c r="W50" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="X50" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W49" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="X49" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="5:24" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="L51" s="14"/>
-    </row>
+    </row>
+    <row r="51" spans="5:24" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-    </row>
-    <row r="53" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+    </row>
+    <row r="54" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="15">
-        <f t="shared" ref="F53:I53" si="60">+F51+F52</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <f>+J51+J52</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <f t="shared" ref="L53:X53" si="61">+L51+L52</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <f t="shared" ref="M53:X53" si="62">+M51+M52</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="15">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E54" s="9" t="s">
+      <c r="F54" s="15">
+        <f t="shared" ref="F54:I54" si="64">+F52+F53</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
+        <f>+J52+J53</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" ref="L54" si="65">+L52+L53</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="15">
+        <f t="shared" ref="M54:X54" si="66">+M52+M53</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="57" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="58" spans="5:24" x14ac:dyDescent="0.2">
       <c r="F58" s="14"/>
@@ -8212,18 +8404,25 @@
       <c r="I748" s="14"/>
       <c r="J748" s="14"/>
     </row>
+    <row r="749" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F749" s="14"/>
+      <c r="G749" s="14"/>
+      <c r="H749" s="14"/>
+      <c r="I749" s="14"/>
+      <c r="J749" s="14"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/clean_model.xlsx
+++ b/clean_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02CAC72-2F0E-4C10-BE28-8FA35544B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B1B1A0-ADFF-43D3-8598-6FB2C0616C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="5880" windowWidth="18855" windowHeight="12690" tabRatio="767" activeTab="1" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="25320" yWindow="6375" windowWidth="24405" windowHeight="12570" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1302,9 +1302,7 @@
   </sheetPr>
   <dimension ref="A1:AF749"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1671,11 +1669,11 @@
         <v>55</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" ref="F16:J16" si="2">SUM(F11:F15)</f>
+        <f>SUM(F13:F15)</f>
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G16:J16" si="2">SUM(G13:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="15">
@@ -1691,87 +1689,87 @@
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" ref="L16:AF16" si="3">SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="3">SUM(L13:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M16" si="4">SUM(M13:M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N16" si="5">SUM(N13:N15)</f>
         <v>0</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O16" si="6">SUM(O13:O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P16" si="7">SUM(P13:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q16" si="8">SUM(Q13:Q15)</f>
         <v>0</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R16" si="9">SUM(R13:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S16" si="10">SUM(S13:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T16" si="11">SUM(T13:T15)</f>
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U16" si="12">SUM(U13:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V16" si="13">SUM(V13:V15)</f>
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="W16" si="14">SUM(W13:W15)</f>
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="X16" si="15">SUM(X13:X15)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Y16" si="16">SUM(Y13:Y15)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Z16" si="17">SUM(Z13:Z15)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AA16" si="18">SUM(AA13:AA15)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AB16" si="19">SUM(AB13:AB15)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AC16" si="20">SUM(AC13:AC15)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AD16" si="21">SUM(AD13:AD15)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AE16" si="22">SUM(AE13:AE15)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AF16" si="23">SUM(AF13:AF15)</f>
         <v>0</v>
       </c>
     </row>
@@ -1811,107 +1809,107 @@
         <v>53</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ref="F18:J18" si="4">SUM(F16:F17)</f>
+        <f t="shared" ref="F18:J18" si="24">SUM(F16:F17)</f>
         <v>0</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" ref="L18:AF18" si="5">SUM(L16:L17)</f>
+        <f t="shared" ref="L18:AF18" si="25">SUM(L16:L17)</f>
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -1982,19 +1980,19 @@
         <v>52</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" ref="F21:I21" si="6">SUM(F19:F20)</f>
+        <f t="shared" ref="F21:I21" si="26">SUM(F19:F20)</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J21" s="18">
@@ -2002,87 +2000,87 @@
         <v>0</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" ref="L21:AF21" si="7">SUM(L19:L20)</f>
+        <f t="shared" ref="L21:AF21" si="27">SUM(L19:L20)</f>
         <v>0</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AE21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -2091,19 +2089,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" ref="F22:I22" si="8">+F18+F21</f>
+        <f t="shared" ref="F22:I22" si="28">+F18+F21</f>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J22" s="15">
@@ -2111,87 +2109,87 @@
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" ref="L22:AF22" si="9">+L18+L21</f>
+        <f t="shared" ref="L22:AF22" si="29">+L18+L21</f>
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AF22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -2231,107 +2229,107 @@
         <v>15</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" ref="F24:J24" si="10">SUM(F22:F23)</f>
+        <f t="shared" ref="F24:J24" si="30">SUM(F22:F23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" ref="L24:AF24" si="11">SUM(L22:L23)</f>
+        <f t="shared" ref="L24:AF24" si="31">SUM(L22:L23)</f>
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AE24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF24" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -2345,103 +2343,103 @@
         <v>n/a</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f t="shared" ref="G26:L26" si="12">IFERROR(+G11/F11-1,"n/a")</f>
+        <f t="shared" ref="G26:L26" si="32">IFERROR(+G11/F11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H26" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
       <c r="I26" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
       <c r="J26" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
       <c r="L26" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>n/a</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="shared" ref="M26" si="13">IFERROR(+M11/L11-1,"n/a")</f>
+        <f t="shared" ref="M26" si="33">IFERROR(+M11/L11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="N26" s="21" t="str">
-        <f t="shared" ref="N26" si="14">IFERROR(+N11/M11-1,"n/a")</f>
+        <f t="shared" ref="N26" si="34">IFERROR(+N11/M11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" ref="O26" si="15">IFERROR(+O11/N11-1,"n/a")</f>
+        <f t="shared" ref="O26" si="35">IFERROR(+O11/N11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P26" s="21" t="str">
-        <f t="shared" ref="P26" si="16">IFERROR(+P11/O11-1,"n/a")</f>
+        <f t="shared" ref="P26" si="36">IFERROR(+P11/O11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Q26" s="21" t="str">
-        <f t="shared" ref="Q26" si="17">IFERROR(+Q11/P11-1,"n/a")</f>
+        <f t="shared" ref="Q26" si="37">IFERROR(+Q11/P11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="R26" s="21" t="str">
-        <f t="shared" ref="R26" si="18">IFERROR(+R11/Q11-1,"n/a")</f>
+        <f t="shared" ref="R26" si="38">IFERROR(+R11/Q11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="S26" s="21" t="str">
-        <f t="shared" ref="S26" si="19">IFERROR(+S11/R11-1,"n/a")</f>
+        <f t="shared" ref="S26" si="39">IFERROR(+S11/R11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="T26" s="21" t="str">
-        <f t="shared" ref="T26" si="20">IFERROR(+T11/S11-1,"n/a")</f>
+        <f t="shared" ref="T26" si="40">IFERROR(+T11/S11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="U26" s="21" t="str">
-        <f t="shared" ref="U26" si="21">IFERROR(+U11/T11-1,"n/a")</f>
+        <f t="shared" ref="U26" si="41">IFERROR(+U11/T11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="V26" s="21" t="str">
-        <f t="shared" ref="V26" si="22">IFERROR(+V11/U11-1,"n/a")</f>
+        <f t="shared" ref="V26" si="42">IFERROR(+V11/U11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="W26" s="21" t="str">
-        <f t="shared" ref="W26" si="23">IFERROR(+W11/V11-1,"n/a")</f>
+        <f t="shared" ref="W26" si="43">IFERROR(+W11/V11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="X26" s="21" t="str">
-        <f t="shared" ref="X26" si="24">IFERROR(+X11/W11-1,"n/a")</f>
+        <f t="shared" ref="X26" si="44">IFERROR(+X11/W11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Y26" s="21" t="str">
-        <f t="shared" ref="Y26" si="25">IFERROR(+Y11/X11-1,"n/a")</f>
+        <f t="shared" ref="Y26" si="45">IFERROR(+Y11/X11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Z26" s="21" t="str">
-        <f t="shared" ref="Z26" si="26">IFERROR(+Z11/Y11-1,"n/a")</f>
+        <f t="shared" ref="Z26" si="46">IFERROR(+Z11/Y11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AA26" s="21" t="str">
-        <f t="shared" ref="AA26" si="27">IFERROR(+AA11/Z11-1,"n/a")</f>
+        <f t="shared" ref="AA26" si="47">IFERROR(+AA11/Z11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AB26" s="21" t="str">
-        <f t="shared" ref="AB26" si="28">IFERROR(+AB11/AA11-1,"n/a")</f>
+        <f t="shared" ref="AB26" si="48">IFERROR(+AB11/AA11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AC26" s="21" t="str">
-        <f t="shared" ref="AC26" si="29">IFERROR(+AC11/AB11-1,"n/a")</f>
+        <f t="shared" ref="AC26" si="49">IFERROR(+AC11/AB11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AD26" s="21" t="str">
-        <f t="shared" ref="AD26" si="30">IFERROR(+AD11/AC11-1,"n/a")</f>
+        <f t="shared" ref="AD26" si="50">IFERROR(+AD11/AC11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AE26" s="21" t="str">
-        <f t="shared" ref="AE26" si="31">IFERROR(+AE11/AD11-1,"n/a")</f>
+        <f t="shared" ref="AE26" si="51">IFERROR(+AE11/AD11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AF26" s="21" t="str">
-        <f t="shared" ref="AF26" si="32">IFERROR(+AF11/AE11-1,"n/a")</f>
+        <f t="shared" ref="AF26" si="52">IFERROR(+AF11/AE11-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -2454,103 +2452,103 @@
         <v>n/a</v>
       </c>
       <c r="G27" s="23" t="str">
-        <f t="shared" ref="G27:J27" si="33">IFERROR(+G13/G11,"n/a")</f>
+        <f t="shared" ref="G27:J27" si="53">IFERROR(+G13/G11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H27" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>n/a</v>
       </c>
       <c r="I27" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>n/a</v>
       </c>
       <c r="J27" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>n/a</v>
       </c>
       <c r="L27" s="23" t="str">
-        <f t="shared" ref="L27:AF27" si="34">IFERROR(+L13/L11,"n/a")</f>
+        <f t="shared" ref="L27:AF27" si="54">IFERROR(+L13/L11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="N27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="O27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="P27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="Q27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="R27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="S27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="T27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="U27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="V27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="W27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="X27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="Y27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="Z27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AA27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AB27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AC27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AD27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AE27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
       <c r="AF27" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2559,107 +2557,107 @@
         <v>56</v>
       </c>
       <c r="F28" s="23" t="str">
-        <f t="shared" ref="F27:J28" si="35">IFERROR(+F16/F11,"n/a")</f>
+        <f t="shared" ref="F28:J28" si="55">IFERROR(+F16/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G28" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>n/a</v>
       </c>
       <c r="H28" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>n/a</v>
       </c>
       <c r="I28" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>n/a</v>
       </c>
       <c r="J28" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>n/a</v>
       </c>
       <c r="L28" s="23" t="str">
-        <f t="shared" ref="L28:AF28" si="36">IFERROR(+L16/L11,"n/a")</f>
+        <f t="shared" ref="L28:AF28" si="56">IFERROR(+L16/L11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="N28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="O28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="P28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="Q28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="R28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="S28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="T28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="U28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="V28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="W28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="X28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="Y28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="Z28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AA28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AB28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AC28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AD28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AE28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
       <c r="AF28" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2668,107 +2666,107 @@
         <v>26</v>
       </c>
       <c r="F29" s="23" t="str">
-        <f t="shared" ref="F29:J29" si="37">IFERROR(+F18/F11,"n/a")</f>
+        <f t="shared" ref="F29:J29" si="57">IFERROR(+F18/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G29" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>n/a</v>
       </c>
       <c r="H29" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>n/a</v>
       </c>
       <c r="I29" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>n/a</v>
       </c>
       <c r="J29" s="24" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>n/a</v>
       </c>
       <c r="L29" s="23" t="str">
-        <f t="shared" ref="L29:AF29" si="38">IFERROR(+L18/L11,"n/a")</f>
+        <f t="shared" ref="L29:AF29" si="58">IFERROR(+L18/L11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="N29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="O29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="P29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="Q29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="R29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="S29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="T29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="U29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="V29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="W29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="X29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="Y29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="Z29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AA29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AB29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AC29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AD29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AE29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
       <c r="AF29" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2777,107 +2775,107 @@
         <v>37</v>
       </c>
       <c r="F30" s="23" t="e">
-        <f t="shared" ref="F30:J30" si="39">-F23/F22</f>
+        <f t="shared" ref="F30:J30" si="59">-F23/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="23" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="23" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="23" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="24" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="23" t="e">
-        <f t="shared" ref="L30:AF30" si="40">-L23/L22</f>
+        <f t="shared" ref="L30:AF30" si="60">-L23/L22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2890,103 +2888,103 @@
         <v>n/a</v>
       </c>
       <c r="G31" s="25" t="str">
-        <f t="shared" ref="G31:L31" si="41">IFERROR(+G24/F24-1,"n/a")</f>
+        <f t="shared" ref="G31:L31" si="61">IFERROR(+G24/F24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H31" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>n/a</v>
       </c>
       <c r="I31" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>n/a</v>
       </c>
       <c r="J31" s="26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>n/a</v>
       </c>
       <c r="L31" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>n/a</v>
       </c>
       <c r="M31" s="25" t="str">
-        <f t="shared" ref="M31" si="42">IFERROR(+M24/L24-1,"n/a")</f>
+        <f t="shared" ref="M31" si="62">IFERROR(+M24/L24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="N31" s="25" t="str">
-        <f t="shared" ref="N31" si="43">IFERROR(+N24/M24-1,"n/a")</f>
+        <f t="shared" ref="N31" si="63">IFERROR(+N24/M24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="O31" s="25" t="str">
-        <f t="shared" ref="O31" si="44">IFERROR(+O24/N24-1,"n/a")</f>
+        <f t="shared" ref="O31" si="64">IFERROR(+O24/N24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" ref="P31" si="45">IFERROR(+P24/O24-1,"n/a")</f>
+        <f t="shared" ref="P31" si="65">IFERROR(+P24/O24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Q31" s="25" t="str">
-        <f t="shared" ref="Q31" si="46">IFERROR(+Q24/P24-1,"n/a")</f>
+        <f t="shared" ref="Q31" si="66">IFERROR(+Q24/P24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="R31" s="25" t="str">
-        <f t="shared" ref="R31" si="47">IFERROR(+R24/Q24-1,"n/a")</f>
+        <f t="shared" ref="R31" si="67">IFERROR(+R24/Q24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="S31" s="25" t="str">
-        <f t="shared" ref="S31" si="48">IFERROR(+S24/R24-1,"n/a")</f>
+        <f t="shared" ref="S31" si="68">IFERROR(+S24/R24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="T31" s="25" t="str">
-        <f t="shared" ref="T31" si="49">IFERROR(+T24/S24-1,"n/a")</f>
+        <f t="shared" ref="T31" si="69">IFERROR(+T24/S24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="U31" s="25" t="str">
-        <f t="shared" ref="U31" si="50">IFERROR(+U24/T24-1,"n/a")</f>
+        <f t="shared" ref="U31" si="70">IFERROR(+U24/T24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="V31" s="25" t="str">
-        <f t="shared" ref="V31" si="51">IFERROR(+V24/U24-1,"n/a")</f>
+        <f t="shared" ref="V31" si="71">IFERROR(+V24/U24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="W31" s="25" t="str">
-        <f t="shared" ref="W31" si="52">IFERROR(+W24/V24-1,"n/a")</f>
+        <f t="shared" ref="W31" si="72">IFERROR(+W24/V24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="X31" s="25" t="str">
-        <f t="shared" ref="X31" si="53">IFERROR(+X24/W24-1,"n/a")</f>
+        <f t="shared" ref="X31" si="73">IFERROR(+X24/W24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Y31" s="25" t="str">
-        <f t="shared" ref="Y31" si="54">IFERROR(+Y24/X24-1,"n/a")</f>
+        <f t="shared" ref="Y31" si="74">IFERROR(+Y24/X24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="Z31" s="25" t="str">
-        <f t="shared" ref="Z31" si="55">IFERROR(+Z24/Y24-1,"n/a")</f>
+        <f t="shared" ref="Z31" si="75">IFERROR(+Z24/Y24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AA31" s="25" t="str">
-        <f t="shared" ref="AA31" si="56">IFERROR(+AA24/Z24-1,"n/a")</f>
+        <f t="shared" ref="AA31" si="76">IFERROR(+AA24/Z24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AB31" s="25" t="str">
-        <f t="shared" ref="AB31" si="57">IFERROR(+AB24/AA24-1,"n/a")</f>
+        <f t="shared" ref="AB31" si="77">IFERROR(+AB24/AA24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AC31" s="25" t="str">
-        <f t="shared" ref="AC31" si="58">IFERROR(+AC24/AB24-1,"n/a")</f>
+        <f t="shared" ref="AC31" si="78">IFERROR(+AC24/AB24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AD31" s="25" t="str">
-        <f t="shared" ref="AD31" si="59">IFERROR(+AD24/AC24-1,"n/a")</f>
+        <f t="shared" ref="AD31" si="79">IFERROR(+AD24/AC24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AE31" s="25" t="str">
-        <f t="shared" ref="AE31" si="60">IFERROR(+AE24/AD24-1,"n/a")</f>
+        <f t="shared" ref="AE31" si="80">IFERROR(+AE24/AD24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="AF31" s="25" t="str">
-        <f t="shared" ref="AF31" si="61">IFERROR(+AF24/AE24-1,"n/a")</f>
+        <f t="shared" ref="AF31" si="81">IFERROR(+AF24/AE24-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -3090,107 +3088,107 @@
         <v>16</v>
       </c>
       <c r="F36" s="17">
-        <f t="shared" ref="F36:J36" si="62">+F35-F24</f>
+        <f t="shared" ref="F36:J36" si="82">+F35-F24</f>
         <v>0</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I36" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J36" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" ref="L36:AF36" si="63">+L35-L24</f>
+        <f t="shared" ref="L36:AF36" si="83">+L35-L24</f>
         <v>0</v>
       </c>
       <c r="M36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Q36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="X36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Y36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Z36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AA36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AB36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AC36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AD36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AE36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AF36" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -3485,19 +3483,19 @@
         <v>24</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" ref="F54:I54" si="64">+F52+F53</f>
+        <f t="shared" ref="F54:I54" si="84">+F52+F53</f>
         <v>0</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="J54" s="15">
@@ -3505,55 +3503,55 @@
         <v>0</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" ref="L54" si="65">+L52+L53</f>
+        <f t="shared" ref="L54" si="85">+L52+L53</f>
         <v>0</v>
       </c>
       <c r="M54" s="15">
-        <f t="shared" ref="M54:X54" si="66">+M52+M53</f>
+        <f t="shared" ref="M54:X54" si="86">+M52+M53</f>
         <v>0</v>
       </c>
       <c r="N54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="O54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="Q54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="S54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="W54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="X54" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
